--- a/src/main/resources/foodItems.xlsx
+++ b/src/main/resources/foodItems.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Продукт</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Кефир 2,5%</t>
+  </si>
+  <si>
+    <t>Каллории на 100г</t>
   </si>
 </sst>
 </file>
@@ -84,7 +87,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,14 +110,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -395,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,9 +422,10 @@
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -422,8 +438,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -436,8 +455,9 @@
       <c r="D2" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -450,8 +470,9 @@
       <c r="D3" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -464,204 +485,238 @@
       <c r="D4" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/foodItems.xlsx
+++ b/src/main/resources/foodItems.xlsx
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -455,7 +455,9 @@
       <c r="D2" s="1">
         <v>8.5</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1">
+        <v>200</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -470,7 +472,9 @@
       <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>200</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -485,238 +489,9 @@
       <c r="D4" s="1">
         <v>2.5</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="E4" s="1">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/foodItems.xlsx
+++ b/src/main/resources/foodItems.xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +456,7 @@
         <v>8.5</v>
       </c>
       <c r="E2" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -490,7 +490,7 @@
         <v>2.5</v>
       </c>
       <c r="E4" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/foodItems.xlsx
+++ b/src/main/resources/foodItems.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Продукт</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Жиры на 100г</t>
   </si>
   <si>
-    <t>Вареное сгущенное молоко</t>
-  </si>
-  <si>
     <t>Творог 5%</t>
   </si>
   <si>
@@ -48,6 +45,33 @@
   </si>
   <si>
     <t>Каллории на 100г</t>
+  </si>
+  <si>
+    <t>Гречка вареная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сгущенное молоко вареное </t>
+  </si>
+  <si>
+    <t>Рис белый вареный</t>
+  </si>
+  <si>
+    <t>Куриная грудка жареная</t>
+  </si>
+  <si>
+    <t>Куриная грудка вареная</t>
+  </si>
+  <si>
+    <t>Картофель вареный</t>
+  </si>
+  <si>
+    <t>Картофель жареный</t>
+  </si>
+  <si>
+    <t>Картофель печеный</t>
+  </si>
+  <si>
+    <t>Куриная грудка запеченная</t>
   </si>
 </sst>
 </file>
@@ -125,11 +149,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -410,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,12 +464,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>6.8</v>
@@ -456,12 +481,12 @@
         <v>8.5</v>
       </c>
       <c r="E2" s="1">
-        <v>100</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>16</v>
@@ -473,12 +498,12 @@
         <v>5</v>
       </c>
       <c r="E3" s="1">
-        <v>200</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -490,7 +515,143 @@
         <v>2.5</v>
       </c>
       <c r="E4" s="1">
-        <v>300</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>21.3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C6" s="4">
+        <v>24.9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20.9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>157.30000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4">
+        <v>19.7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>148.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <v>29.8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="E9" s="4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="C11" s="4">
+        <v>23.4</v>
+      </c>
+      <c r="D11" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="E12" s="4">
+        <v>137.1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/foodItems.xlsx
+++ b/src/main/resources/foodItems.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Продукт</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Куриная грудка запеченная</t>
+  </si>
+  <si>
+    <t>Яйцо вареное</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,6 +657,23 @@
         <v>137.1</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D13" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="E13" s="4">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/foodItems.xlsx
+++ b/src/main/resources/foodItems.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\FoodCalculator\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\FoodCalculator\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,9 +50,6 @@
     <t>Гречка вареная</t>
   </si>
   <si>
-    <t xml:space="preserve">Сгущенное молоко вареное </t>
-  </si>
-  <si>
     <t>Рис белый вареный</t>
   </si>
   <si>
@@ -74,7 +71,10 @@
     <t>Куриная грудка запеченная</t>
   </si>
   <si>
-    <t>Яйцо вареное</t>
+    <t>Сгущенное молоко вареное</t>
+  </si>
+  <si>
+    <t>Яйцо вареное [1 шт ≈ 55г.]</t>
   </si>
 </sst>
 </file>
@@ -440,9 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -472,7 +470,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1">
         <v>6.8</v>
@@ -540,7 +538,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4">
         <v>2.2000000000000002</v>
@@ -557,7 +555,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4">
         <v>20.9</v>
@@ -574,7 +572,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4">
         <v>19.7</v>
@@ -591,7 +589,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4">
         <v>29.8</v>
@@ -608,7 +606,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
@@ -625,7 +623,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4">
         <v>2.8</v>
@@ -642,7 +640,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4">
         <v>2</v>

--- a/src/main/resources/foodItems.xlsx
+++ b/src/main/resources/foodItems.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Продукт</t>
   </si>
@@ -74,14 +77,116 @@
     <t>Сгущенное молоко вареное</t>
   </si>
   <si>
-    <t>Яйцо вареное [1 шт ≈ 55г.]</t>
+    <t>Яйцо жареное</t>
+  </si>
+  <si>
+    <t>Камбала жареная  [1 шт ≈ 100 г.]</t>
+  </si>
+  <si>
+    <t>Яйцо вареное [1 шт ≈ 55 г.]</t>
+  </si>
+  <si>
+    <t>Макароны тверд.сорт.пшен. 2 сорт</t>
+  </si>
+  <si>
+    <t>Гейнер LBS RULE1</t>
+  </si>
+  <si>
+    <t>Протеин Whey Prostar ULTIMATE NUTRITION</t>
+  </si>
+  <si>
+    <t>Оладьи на кефире</t>
+  </si>
+  <si>
+    <t>Блины на молоке</t>
+  </si>
+  <si>
+    <t>Драники</t>
+  </si>
+  <si>
+    <t>Торт медовик</t>
+  </si>
+  <si>
+    <t>Печенье медовое со сгущенкой</t>
+  </si>
+  <si>
+    <t>Салат под шубой</t>
+  </si>
+  <si>
+    <t>Салат с кальмарами, рисом и огурцом</t>
+  </si>
+  <si>
+    <t>Салат из крабовых палочек</t>
+  </si>
+  <si>
+    <t>Салат Зимний</t>
+  </si>
+  <si>
+    <t>Салат с курицей и корейской морковью</t>
+  </si>
+  <si>
+    <t>Окрошка на квасе</t>
+  </si>
+  <si>
+    <t>Борщ с курицей</t>
+  </si>
+  <si>
+    <t>Суп с курицей и вермишелью</t>
+  </si>
+  <si>
+    <t>Плов с курицей</t>
+  </si>
+  <si>
+    <t>Венегрет</t>
+  </si>
+  <si>
+    <t>Салат свекла с солеными огурцами</t>
+  </si>
+  <si>
+    <t>Лечо</t>
+  </si>
+  <si>
+    <t>Пицца из дрожжевого теста</t>
+  </si>
+  <si>
+    <t>Банан</t>
+  </si>
+  <si>
+    <t>Яблочный сок</t>
+  </si>
+  <si>
+    <t>Апельсиновый сок</t>
+  </si>
+  <si>
+    <t>Каша овсяная на молоке</t>
+  </si>
+  <si>
+    <t>Каша рисовая на молоке</t>
+  </si>
+  <si>
+    <t>Каша пшеничная на молоке</t>
+  </si>
+  <si>
+    <t>Каша пшенная на молоке</t>
+  </si>
+  <si>
+    <t>Тыквенные семечки жареные соленые</t>
+  </si>
+  <si>
+    <t>Пирожное Choco-Pie</t>
+  </si>
+  <si>
+    <t>Хлеб Пшеничный [1 кусок ≈ 50 г.]</t>
+  </si>
+  <si>
+    <t>Хлеб Ржаной [1 кусок ≈ 50 г.]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +203,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF312E25"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -152,12 +264,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -438,13 +556,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
@@ -657,7 +778,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4">
         <v>12.9</v>
@@ -672,7 +793,586 @@
         <v>160</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D14" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="E14" s="4">
+        <v>151.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4">
+        <v>16.8</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="D15" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4">
+        <v>71</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="E16" s="4">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="C17" s="4">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>367.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4">
+        <v>83.25</v>
+      </c>
+      <c r="C18" s="4">
+        <v>6.66</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3.33</v>
+      </c>
+      <c r="E18" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="C19" s="4">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E19" s="4">
+        <v>170.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="C20" s="4">
+        <v>22</v>
+      </c>
+      <c r="D20" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="C21" s="4">
+        <v>14.6</v>
+      </c>
+      <c r="D21" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>183.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4">
+        <v>48.9</v>
+      </c>
+      <c r="D22" s="4">
+        <v>29</v>
+      </c>
+      <c r="E22" s="4">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4">
+        <v>8.18</v>
+      </c>
+      <c r="C23" s="4">
+        <v>54.98</v>
+      </c>
+      <c r="D23" s="4">
+        <v>14.56</v>
+      </c>
+      <c r="E23" s="4">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="C24" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="D24" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="E24" s="4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="D25" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="E25" s="4">
+        <v>114.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="4">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="D26" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="E26" s="4">
+        <v>142.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C27" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="D27" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="E27" s="4">
+        <v>153.69999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="C28" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>10</v>
+      </c>
+      <c r="E28" s="4">
+        <v>131.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C29" s="4">
+        <v>12</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E29" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="C30" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E30" s="4">
+        <v>138.30000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="C31" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D31" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E31" s="4">
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="E32" s="4">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="C33" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E33" s="4">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C34" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="D34" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="E34" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C35" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E35" s="4">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="4">
+        <v>8</v>
+      </c>
+      <c r="C36" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" s="4">
+        <v>20</v>
+      </c>
+      <c r="E36" s="4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C37" s="4">
+        <v>21.8</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E37" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C38" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E38" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="C39" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E39" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="C40" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="D40" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E40" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="C41" s="4">
+        <v>16</v>
+      </c>
+      <c r="D41" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C42" s="4">
+        <v>19.8</v>
+      </c>
+      <c r="D42" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="E42" s="4">
+        <v>136.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="C43" s="4">
+        <v>21.1</v>
+      </c>
+      <c r="D43" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="E43" s="4">
+        <v>146.80000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="C44" s="4">
+        <v>48.8</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="4">
+        <v>13</v>
+      </c>
+      <c r="C45" s="4">
+        <v>40</v>
+      </c>
+      <c r="D45" s="4">
+        <v>3</v>
+      </c>
+      <c r="E45" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="C46" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="D46" s="4">
+        <v>51.2</v>
+      </c>
+      <c r="E46" s="4">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="C47" s="4">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="D47" s="4">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E47" s="4">
+        <v>430</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/foodItems.xlsx
+++ b/src/main/resources/foodItems.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\FoodCalculator\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\JavaProjects\FoodCalculator\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -86,9 +86,6 @@
     <t>Яйцо вареное [1 шт ≈ 55 г.]</t>
   </si>
   <si>
-    <t>Макароны тверд.сорт.пшен. 2 сорт</t>
-  </si>
-  <si>
     <t>Гейнер LBS RULE1</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>Хлеб Ржаной [1 кусок ≈ 50 г.]</t>
+  </si>
+  <si>
+    <t>Макароны мука 2 сорт [порция ≈ 110 г.]</t>
   </si>
 </sst>
 </file>
@@ -559,13 +559,13 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
@@ -590,717 +590,717 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1">
-        <v>6.8</v>
-      </c>
-      <c r="C2" s="1">
-        <v>56</v>
-      </c>
-      <c r="D2" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="E2" s="1">
-        <v>328</v>
+      <c r="A2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="C2" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>121</v>
+      <c r="A3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>21.8</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>53</v>
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B5" s="4">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C5" s="4">
-        <v>21.3</v>
+        <v>3.9</v>
       </c>
       <c r="D5" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="E5" s="4">
-        <v>110</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4">
-        <v>2.2000000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="C6" s="4">
-        <v>24.9</v>
+        <v>9.1</v>
       </c>
       <c r="D6" s="4">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4">
-        <v>116</v>
+        <v>131.6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4">
-        <v>20.9</v>
+        <v>14.5</v>
       </c>
       <c r="C7" s="4">
-        <v>1.5</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="D7" s="4">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>157.30000000000001</v>
+        <v>367.2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>19.7</v>
+        <v>4.2</v>
       </c>
       <c r="C8" s="4">
-        <v>3.6</v>
+        <v>21.3</v>
       </c>
       <c r="D8" s="4">
-        <v>6.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E8" s="4">
-        <v>148.5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4">
-        <v>29.8</v>
+        <v>2.6</v>
       </c>
       <c r="C9" s="4">
-        <v>0.5</v>
+        <v>14.6</v>
       </c>
       <c r="D9" s="4">
-        <v>1.8</v>
+        <v>13.1</v>
       </c>
       <c r="E9" s="4">
-        <v>137</v>
+        <v>183.9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4">
-        <v>2</v>
+        <v>16.8</v>
       </c>
       <c r="C10" s="4">
-        <v>16.7</v>
+        <v>4.7</v>
       </c>
       <c r="D10" s="4">
-        <v>0.4</v>
+        <v>15.1</v>
       </c>
       <c r="E10" s="4">
-        <v>82</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="C11" s="4">
-        <v>23.4</v>
+        <v>16.7</v>
       </c>
       <c r="D11" s="4">
-        <v>9.5</v>
+        <v>0.4</v>
       </c>
       <c r="E11" s="4">
-        <v>192</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="C12" s="4">
-        <v>16.5</v>
+        <v>23.4</v>
       </c>
       <c r="D12" s="4">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
       <c r="E12" s="4">
-        <v>137.1</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>12.9</v>
+        <v>2</v>
       </c>
       <c r="C13" s="4">
-        <v>0.8</v>
+        <v>16.5</v>
       </c>
       <c r="D13" s="4">
-        <v>11.6</v>
+        <v>7.4</v>
       </c>
       <c r="E13" s="4">
-        <v>160</v>
+        <v>137.1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B14" s="4">
-        <v>12.3</v>
+        <v>3.2</v>
       </c>
       <c r="C14" s="4">
-        <v>0.7</v>
+        <v>14.2</v>
       </c>
       <c r="D14" s="4">
-        <v>10.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E14" s="4">
-        <v>151.5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B15" s="4">
-        <v>16.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C15" s="4">
-        <v>4.7</v>
+        <v>19.8</v>
       </c>
       <c r="D15" s="4">
-        <v>15.1</v>
+        <v>4.3</v>
       </c>
       <c r="E15" s="4">
-        <v>223</v>
+        <v>136.9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B16" s="4">
-        <v>13</v>
+        <v>3.9</v>
       </c>
       <c r="C16" s="4">
-        <v>71</v>
+        <v>21.1</v>
       </c>
       <c r="D16" s="4">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
       <c r="E16" s="4">
-        <v>349</v>
+        <v>146.80000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B17" s="4">
-        <v>14.5</v>
+        <v>2.5</v>
       </c>
       <c r="C17" s="4">
-        <v>74.099999999999994</v>
+        <v>16</v>
       </c>
       <c r="D17" s="4">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="E17" s="4">
-        <v>367.2</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="4">
-        <v>83.25</v>
-      </c>
-      <c r="C18" s="4">
-        <v>6.66</v>
-      </c>
-      <c r="D18" s="4">
-        <v>3.33</v>
-      </c>
-      <c r="E18" s="4">
-        <v>400</v>
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B19" s="4">
-        <v>5.4</v>
+        <v>29.8</v>
       </c>
       <c r="C19" s="4">
-        <v>32.299999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="D19" s="4">
-        <v>2.2999999999999998</v>
+        <v>1.8</v>
       </c>
       <c r="E19" s="4">
-        <v>170.9</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B20" s="4">
-        <v>4.8</v>
+        <v>20.9</v>
       </c>
       <c r="C20" s="4">
-        <v>22</v>
+        <v>1.5</v>
       </c>
       <c r="D20" s="4">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="E20" s="4">
-        <v>170</v>
+        <v>157.30000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B21" s="4">
-        <v>2.6</v>
+        <v>19.7</v>
       </c>
       <c r="C21" s="4">
-        <v>14.6</v>
+        <v>3.6</v>
       </c>
       <c r="D21" s="4">
-        <v>13.1</v>
+        <v>6.2</v>
       </c>
       <c r="E21" s="4">
-        <v>183.9</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B22" s="4">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="C22" s="4">
-        <v>48.9</v>
+        <v>7.5</v>
       </c>
       <c r="D22" s="4">
-        <v>29</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E22" s="4">
-        <v>478</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B23" s="4">
-        <v>8.18</v>
+        <v>13</v>
       </c>
       <c r="C23" s="4">
-        <v>54.98</v>
+        <v>71</v>
       </c>
       <c r="D23" s="4">
-        <v>14.56</v>
+        <v>1.4</v>
       </c>
       <c r="E23" s="4">
-        <v>382</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B24" s="4">
-        <v>7.3</v>
+        <v>3.6</v>
       </c>
       <c r="C24" s="4">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="D24" s="4">
-        <v>11.5</v>
+        <v>4.5</v>
       </c>
       <c r="E24" s="4">
-        <v>159</v>
+        <v>78.900000000000006</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B25" s="4">
-        <v>11</v>
+        <v>5.4</v>
       </c>
       <c r="C25" s="4">
-        <v>3.9</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="D25" s="4">
-        <v>5.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E25" s="4">
-        <v>114.1</v>
+        <v>170.9</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4">
-        <v>6</v>
+        <v>8.18</v>
       </c>
       <c r="C26" s="4">
-        <v>12.8</v>
+        <v>54.98</v>
       </c>
       <c r="D26" s="4">
-        <v>7.2</v>
+        <v>14.56</v>
       </c>
       <c r="E26" s="4">
-        <v>142.1</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B27" s="4">
-        <v>4.5999999999999996</v>
+        <v>3.6</v>
       </c>
       <c r="C27" s="4">
-        <v>5.3</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="D27" s="4">
-        <v>12.7</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E27" s="4">
-        <v>153.69999999999999</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B28" s="4">
-        <v>1.4</v>
+        <v>8</v>
       </c>
       <c r="C28" s="4">
-        <v>9.1</v>
+        <v>11</v>
       </c>
       <c r="D28" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E28" s="4">
-        <v>131.6</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B29" s="4">
-        <v>2.2000000000000002</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C29" s="4">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D29" s="4">
-        <v>0.14000000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="E29" s="4">
-        <v>56</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B30" s="4">
-        <v>6.4</v>
+        <v>83.25</v>
       </c>
       <c r="C30" s="4">
-        <v>6.1</v>
+        <v>6.66</v>
       </c>
       <c r="D30" s="4">
-        <v>9.6999999999999993</v>
+        <v>3.33</v>
       </c>
       <c r="E30" s="4">
-        <v>138.30000000000001</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B31" s="4">
-        <v>3.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C31" s="4">
-        <v>5.5</v>
+        <v>24.9</v>
       </c>
       <c r="D31" s="4">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="E31" s="4">
-        <v>78.900000000000006</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B32" s="4">
-        <v>4.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C32" s="4">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="D32" s="4">
-        <v>1.6</v>
+        <v>12.7</v>
       </c>
       <c r="E32" s="4">
-        <v>46.3</v>
+        <v>153.69999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B33" s="4">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="C33" s="4">
-        <v>3.8</v>
+        <v>12.8</v>
       </c>
       <c r="D33" s="4">
-        <v>2.2999999999999998</v>
+        <v>7.2</v>
       </c>
       <c r="E33" s="4">
-        <v>46.6</v>
+        <v>142.1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B34" s="4">
-        <v>8.1999999999999993</v>
+        <v>7.3</v>
       </c>
       <c r="C34" s="4">
-        <v>11.8</v>
+        <v>6.8</v>
       </c>
       <c r="D34" s="4">
-        <v>6.4</v>
+        <v>11.5</v>
       </c>
       <c r="E34" s="4">
-        <v>136</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B35" s="4">
-        <v>0.9</v>
+        <v>11</v>
       </c>
       <c r="C35" s="4">
-        <v>7.5</v>
+        <v>3.9</v>
       </c>
       <c r="D35" s="4">
-        <v>2.2000000000000002</v>
+        <v>5.9</v>
       </c>
       <c r="E35" s="4">
-        <v>50.2</v>
+        <v>114.1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B36" s="4">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="C36" s="4">
-        <v>11</v>
+        <v>6.1</v>
       </c>
       <c r="D36" s="4">
-        <v>20</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E36" s="4">
-        <v>255</v>
+        <v>138.30000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C37" s="4">
-        <v>21.8</v>
+        <v>12</v>
       </c>
       <c r="D37" s="4">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E37" s="4">
-        <v>95</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="C38" s="4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="E38" s="4">
-        <v>42</v>
+      <c r="A38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="C38" s="1">
+        <v>56</v>
+      </c>
+      <c r="D38" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="E38" s="1">
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="6">
-        <v>0.9</v>
+      <c r="A39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="4">
+        <v>2.8</v>
       </c>
       <c r="C39" s="4">
-        <v>8.1</v>
+        <v>3.8</v>
       </c>
       <c r="D39" s="4">
-        <v>0.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E39" s="4">
-        <v>36</v>
+        <v>46.6</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="C40" s="4">
-        <v>14.2</v>
-      </c>
-      <c r="D40" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E40" s="4">
-        <v>102</v>
+      <c r="A40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1">
+        <v>16</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1">
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B41" s="4">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="C41" s="4">
-        <v>16</v>
+        <v>48.9</v>
       </c>
       <c r="D41" s="4">
-        <v>3.1</v>
+        <v>29</v>
       </c>
       <c r="E41" s="4">
-        <v>97</v>
+        <v>478</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" s="4">
-        <v>4.0999999999999996</v>
+        <v>13.5</v>
       </c>
       <c r="C42" s="4">
-        <v>19.8</v>
+        <v>18.5</v>
       </c>
       <c r="D42" s="4">
-        <v>4.3</v>
+        <v>51.2</v>
       </c>
       <c r="E42" s="4">
-        <v>136.9</v>
+        <v>589</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43" s="4">
-        <v>3.9</v>
+        <v>8.1</v>
       </c>
       <c r="C43" s="4">
-        <v>21.1</v>
+        <v>48.8</v>
       </c>
       <c r="D43" s="4">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="E43" s="4">
-        <v>146.80000000000001</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1308,71 +1308,75 @@
         <v>49</v>
       </c>
       <c r="B44" s="4">
-        <v>8.1</v>
+        <v>13</v>
       </c>
       <c r="C44" s="4">
-        <v>48.8</v>
+        <v>40</v>
       </c>
       <c r="D44" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E44" s="4">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B45" s="4">
-        <v>13</v>
+        <v>0.4</v>
       </c>
       <c r="C45" s="4">
-        <v>40</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D45" s="4">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="E45" s="4">
-        <v>250</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B46" s="4">
-        <v>13.5</v>
+        <v>12.9</v>
       </c>
       <c r="C46" s="4">
-        <v>18.5</v>
+        <v>0.8</v>
       </c>
       <c r="D46" s="4">
-        <v>51.2</v>
+        <v>11.6</v>
       </c>
       <c r="E46" s="4">
-        <v>589</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B47" s="4">
-        <v>3.6</v>
+        <v>12.3</v>
       </c>
       <c r="C47" s="4">
-        <v>70.900000000000006</v>
+        <v>0.7</v>
       </c>
       <c r="D47" s="4">
-        <v>16.100000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="E47" s="4">
-        <v>430</v>
+        <v>151.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:E1">
+    <sortState ref="A2:E47">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/foodItems.xlsx
+++ b/src/main/resources/foodItems.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\JavaProjects\FoodCalculator\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\FoodCalculator\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Продукт</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Яйцо жареное</t>
   </si>
   <si>
-    <t>Камбала жареная  [1 шт ≈ 100 г.]</t>
-  </si>
-  <si>
     <t>Яйцо вареное [1 шт ≈ 55 г.]</t>
   </si>
   <si>
@@ -180,6 +177,18 @@
   </si>
   <si>
     <t>Макароны мука 2 сорт [порция ≈ 110 г.]</t>
+  </si>
+  <si>
+    <t>Арахис необжаренный</t>
+  </si>
+  <si>
+    <t>Сыр Ламбер</t>
+  </si>
+  <si>
+    <t>Рыба. Камбала жареная  [1 шт ≈ 100 г.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Рыба. Минтай жареный в яйце</t>
   </si>
 </sst>
 </file>
@@ -556,11 +565,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +600,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="6">
         <v>0.9</v>
@@ -608,138 +617,138 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4">
-        <v>1.5</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4">
-        <v>21.8</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4">
-        <v>0.2</v>
+        <v>50</v>
       </c>
       <c r="E3" s="4">
-        <v>95</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="C4" s="4">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="D4" s="4">
-        <v>7.1</v>
+        <v>0.2</v>
       </c>
       <c r="E4" s="4">
-        <v>170</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
-        <v>4.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="C5" s="4">
-        <v>3.9</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4">
-        <v>1.6</v>
+        <v>7.1</v>
       </c>
       <c r="E5" s="4">
-        <v>46.3</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4">
-        <v>1.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C6" s="4">
-        <v>9.1</v>
+        <v>3.9</v>
       </c>
       <c r="D6" s="4">
-        <v>10</v>
+        <v>1.6</v>
       </c>
       <c r="E6" s="4">
-        <v>131.6</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B7" s="4">
-        <v>14.5</v>
+        <v>1.4</v>
       </c>
       <c r="C7" s="4">
-        <v>74.099999999999994</v>
+        <v>9.1</v>
       </c>
       <c r="D7" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4">
-        <v>367.2</v>
+        <v>131.6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4">
-        <v>4.2</v>
+        <v>14.5</v>
       </c>
       <c r="C8" s="4">
-        <v>21.3</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="D8" s="4">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>110</v>
+        <v>367.2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="C9" s="4">
-        <v>14.6</v>
+        <v>21.3</v>
       </c>
       <c r="D9" s="4">
-        <v>13.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E9" s="4">
-        <v>183.9</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4">
-        <v>16.8</v>
+        <v>2.6</v>
       </c>
       <c r="C10" s="4">
-        <v>4.7</v>
+        <v>14.6</v>
       </c>
       <c r="D10" s="4">
-        <v>15.1</v>
+        <v>13.1</v>
       </c>
       <c r="E10" s="4">
-        <v>223</v>
+        <v>183.9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -795,7 +804,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="4">
         <v>3.2</v>
@@ -812,7 +821,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="4">
         <v>4.0999999999999996</v>
@@ -829,7 +838,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="4">
         <v>3.9</v>
@@ -846,7 +855,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="4">
         <v>2.5</v>
@@ -931,7 +940,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="4">
         <v>0.9</v>
@@ -948,7 +957,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="4">
         <v>13</v>
@@ -965,7 +974,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="4">
         <v>3.6</v>
@@ -982,7 +991,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="4">
         <v>5.4</v>
@@ -999,7 +1008,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4">
         <v>8.18</v>
@@ -1016,7 +1025,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="4">
         <v>3.6</v>
@@ -1033,7 +1042,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="4">
         <v>8</v>
@@ -1050,7 +1059,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="4">
         <v>8.1999999999999993</v>
@@ -1067,7 +1076,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="4">
         <v>83.25</v>
@@ -1101,53 +1110,53 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B32" s="4">
-        <v>4.5999999999999996</v>
+        <v>16.8</v>
       </c>
       <c r="C32" s="4">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="D32" s="4">
-        <v>12.7</v>
+        <v>15.1</v>
       </c>
       <c r="E32" s="4">
-        <v>153.69999999999999</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B33" s="4">
-        <v>6</v>
+        <v>13.5</v>
       </c>
       <c r="C33" s="4">
-        <v>12.8</v>
+        <v>2.9</v>
       </c>
       <c r="D33" s="4">
-        <v>7.2</v>
+        <v>10.3</v>
       </c>
       <c r="E33" s="4">
-        <v>142.1</v>
+        <v>160.4</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B34" s="4">
-        <v>7.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C34" s="4">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="D34" s="4">
-        <v>11.5</v>
+        <v>12.7</v>
       </c>
       <c r="E34" s="4">
-        <v>159</v>
+        <v>153.69999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1155,225 +1164,276 @@
         <v>27</v>
       </c>
       <c r="B35" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C35" s="4">
-        <v>3.9</v>
+        <v>12.8</v>
       </c>
       <c r="D35" s="4">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="E35" s="4">
-        <v>114.1</v>
+        <v>142.1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B36" s="4">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="C36" s="4">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="D36" s="4">
-        <v>9.6999999999999993</v>
+        <v>11.5</v>
       </c>
       <c r="E36" s="4">
-        <v>138.30000000000001</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B37" s="4">
-        <v>2.2000000000000002</v>
+        <v>11</v>
       </c>
       <c r="C37" s="4">
-        <v>12</v>
+        <v>3.9</v>
       </c>
       <c r="D37" s="4">
-        <v>0.14000000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="E37" s="4">
-        <v>56</v>
+        <v>114.1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="1">
-        <v>6.8</v>
-      </c>
-      <c r="C38" s="1">
-        <v>56</v>
-      </c>
-      <c r="D38" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="E38" s="1">
-        <v>328</v>
+      <c r="A38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="C38" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="D38" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E38" s="4">
+        <v>138.30000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B39" s="4">
-        <v>2.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C39" s="4">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="D39" s="4">
-        <v>2.2999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E39" s="4">
-        <v>46.6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B40" s="1">
-        <v>16</v>
+        <v>6.8</v>
       </c>
       <c r="C40" s="1">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D40" s="1">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="E40" s="1">
-        <v>121</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B41" s="4">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="C41" s="4">
-        <v>48.9</v>
+        <v>3.8</v>
       </c>
       <c r="D41" s="4">
-        <v>29</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E41" s="4">
-        <v>478</v>
+        <v>46.6</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B42" s="4">
-        <v>13.5</v>
+        <v>23.7</v>
       </c>
       <c r="C42" s="4">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="D42" s="4">
-        <v>51.2</v>
+        <v>30.5</v>
       </c>
       <c r="E42" s="4">
-        <v>589</v>
+        <v>377</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="4">
-        <v>8.1</v>
-      </c>
-      <c r="C43" s="4">
-        <v>48.8</v>
-      </c>
-      <c r="D43" s="4">
-        <v>1</v>
-      </c>
-      <c r="E43" s="4">
-        <v>242</v>
+      <c r="A43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1">
+        <v>16</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B44" s="4">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C44" s="4">
-        <v>40</v>
+        <v>48.9</v>
       </c>
       <c r="D44" s="4">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E44" s="4">
-        <v>250</v>
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B45" s="4">
-        <v>0.4</v>
+        <v>13.5</v>
       </c>
       <c r="C45" s="4">
-        <v>9.8000000000000007</v>
+        <v>18.5</v>
       </c>
       <c r="D45" s="4">
-        <v>0.4</v>
+        <v>51.2</v>
       </c>
       <c r="E45" s="4">
-        <v>42</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B46" s="4">
-        <v>12.9</v>
+        <v>8.1</v>
       </c>
       <c r="C46" s="4">
-        <v>0.8</v>
+        <v>48.8</v>
       </c>
       <c r="D46" s="4">
-        <v>11.6</v>
+        <v>1</v>
       </c>
       <c r="E46" s="4">
-        <v>160</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="4">
+        <v>13</v>
+      </c>
+      <c r="C47" s="4">
+        <v>40</v>
+      </c>
+      <c r="D47" s="4">
+        <v>3</v>
+      </c>
+      <c r="E47" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C48" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E48" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D49" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="E49" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B50" s="4">
         <v>12.3</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C50" s="4">
         <v>0.7</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D50" s="4">
         <v>10.5</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E50" s="4">
         <v>151.5</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1">
-    <sortState ref="A2:E47">
+    <sortState ref="A2:E50">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/src/main/resources/foodItems.xlsx
+++ b/src/main/resources/foodItems.xlsx
@@ -188,7 +188,7 @@
     <t>Рыба. Камбала жареная  [1 шт ≈ 100 г.]</t>
   </si>
   <si>
-    <t xml:space="preserve"> Рыба. Минтай жареный в яйце</t>
+    <t>Рыба. Минтай жареный в яйце</t>
   </si>
 </sst>
 </file>
@@ -568,8 +568,8 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
